--- a/P0008/09_FICHAS/N3-FD-General.xlsx
+++ b/P0008/09_FICHAS/N3-FD-General.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0008\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D5B246-1DE2-47E0-BFF1-7347C090ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{87D5B246-1DE2-47E0-BFF1-7347C090ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF80C40-3A43-46CB-9737-802179A25FC5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="118">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -78,7 +89,7 @@
     <t>P0008</t>
   </si>
   <si>
-    <t>PR027</t>
+    <t>PR0027</t>
   </si>
   <si>
     <t>R0001</t>
@@ -93,7 +104,7 @@
     <t>Caracterización geomorfológica y fisiográfica de La Mojana. Productos del contrato 157 de 2013</t>
   </si>
   <si>
-    <t>Capa de fisiografía y su respectiva leyenda, utilizada para la generación de mapas usados en los productos de caracterización feomorfologica y fisiografica de la Mojana dentro del contrato  157 de 2013.</t>
+    <t>Capa de fisiografía y su respectiva leyenda, utilizada para la generación de mapas usados en los productos de caracterización feomorfológica y fisiográfica de La Mojana dentro del contrato  157 de 2013.</t>
   </si>
   <si>
     <t>Capa cartográfica</t>
@@ -102,13 +113,22 @@
     <t>shp</t>
   </si>
   <si>
+    <t>Medio abiótico</t>
+  </si>
+  <si>
+    <t>Polígonos</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
     <t>DESCONOCIDO</t>
   </si>
   <si>
     <t>Insumos de los productos 3b, 4 y 5 del contrato 157 de 2013.</t>
   </si>
   <si>
-    <t>Fisiografía, Shp, Cartografía, Paisaje, Unidades climáticas, Relieve, Ladera, Morfología, SIG, Geomorfología,  Plano de inundación, Terraza, Río Cauca, Río San Jorge.</t>
+    <t>Fisiografía, shp, cartografía, paisaje, unidades climáticas, relieve, ladera, morfología, SIG, geomorfología, plano de inundación, terraza, río Cauca, río San Jorge.</t>
   </si>
   <si>
     <t>R0002</t>
@@ -120,16 +140,16 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/GEOMORFOLOGIA/Producto 3/Mapa Geomorfologia</t>
   </si>
   <si>
-    <t>Capa de geomorfología y su respectiva leyenda, utilizada para la generación de mapas usados en los productos de caracterización feomorfologica y fisiografica de la Mojana dentro del contrato  157 de 2013.</t>
+    <t>Capa de geomorfología y su respectiva leyenda, utilizada para la generación de mapas usados en los productos de caracterización feomorfológica y fisiográfica de La Mojana dentro del contrato  157 de 2013.</t>
   </si>
   <si>
     <t>Insumos de los productos 3b y 4 del contrato 157 de 2013.</t>
   </si>
   <si>
-    <t>Fisiografía, Shp, Cartografía, Paisaje, Geología, Relieve, Suelo, Morfología, SIG, Geomorfología,  Plano de inundación, Falla, Río Cauca, Río San Jorge, Morfogenesis, Morfografía, VAlle aluvial, Terraza.</t>
-  </si>
-  <si>
-    <t>PR028</t>
+    <t>Fisiografía, shp, cartografía, paisaje, geología, relieve, suelo, morfología, SIG, geomorfología, plano de inundación, falla, río Cauca, río San Jorge, morfogénesis, morfografía, valle aluvial, terraza.</t>
+  </si>
+  <si>
+    <t>PR0028</t>
   </si>
   <si>
     <t>R0003</t>
@@ -144,16 +164,16 @@
     <t>Análisis multitemporal de La Mojana. Producto del contrato 157 de 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">Anexos del producto 4 del contrato 157 de 2013, corresponden a shapes generados para la realización del análisis multitemporal de La mojana, en el marco de la modelación hidrodinámica de esta Región. </t>
-  </si>
-  <si>
-    <t>Insumos del producto 4 del contrato 157 de 2013. Los shapes se encuentran comprimidos en un archivo rar</t>
-  </si>
-  <si>
-    <t>Análisis multitemproral, Fisiografía, Cartografía, Morfología, Suelo, Relieve, Shp, SIG, Río Cauca, Río San Jorge, Geomorfología.</t>
-  </si>
-  <si>
-    <t>PR029</t>
+    <t xml:space="preserve">Anexos del producto 4 del contrato 157 de 2013, corresponden a shapefiles generados para la realización del análisis multitemporal de La Mojana, en el marco de la modelación hidrodinámica de esta Región. </t>
+  </si>
+  <si>
+    <t>Insumos del producto 4 del contrato 157 de 2013. Los shapefiles se encuentran comprimidos en un archivo rar.</t>
+  </si>
+  <si>
+    <t>Análisis multitemporal, fisiografía, cartografía, morfología, suelo, relieve, shp, SIG, río Cauca, río San Jorge, geomorfología.</t>
+  </si>
+  <si>
+    <t>PR0029</t>
   </si>
   <si>
     <t>R0004</t>
@@ -168,16 +188,16 @@
     <t>Caracterización Fisiográfica-suelos de las cuencas aferentes de La Mojana. Producto del contrato 157 de 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">Anexos del producto 5 del contrato 157 de 2013, corresponden a shapes generados para la realización de la caracterización fisiográfica de suelos de las cuencas aferentes de La mojana, en el marco de la modelación hidrodinámica de esta Región. </t>
-  </si>
-  <si>
-    <t>Insumos del producto 5 del contrato 157 de 2013. Los shapes se encuentran comprimidos en un archivo rar</t>
-  </si>
-  <si>
-    <t>Fisiografía, Suelo, Erosión, Shp, Paisaje, Relieve, SIG.</t>
-  </si>
-  <si>
-    <t>PR012, PR013,PR014,PR015,PR016</t>
+    <t xml:space="preserve">Anexos del producto 5 del contrato 157 de 2013, corresponden a shapefiles generados para la realización de la caracterización fisiográfica de suelos de las cuencas aferentes de La Mojana, en el marco de la modelación hidrodinámica de esta región. </t>
+  </si>
+  <si>
+    <t>Insumos del producto 5 del contrato 157 de 2013. Los shapefiles se encuentran comprimidos en un archivo rar.</t>
+  </si>
+  <si>
+    <t>Fisiografía, suelo, erosión, shp, paisaje, relieve, SIG.</t>
+  </si>
+  <si>
+    <t>PR0012, PR0013,PR0014,PR0015,PR0016</t>
   </si>
   <si>
     <t>R0005</t>
@@ -192,16 +212,19 @@
     <t xml:space="preserve">Caracterización hidrogeológica del contrato 286 de 2013. </t>
   </si>
   <si>
-    <t>Capas cartograficas utilizadas para la caracterización hidrogeologica de La Mojana  en cumplimiento del contrato No. 286 de 2013.  para ser incorporada a la Modelación hidrodinámica de la región dentro del marco del convenio de asociación No. 012 de 2013</t>
+    <t>Capas cartográficas utilizadas para la caracterización hidrogeológica de La Mojana  en cumplimiento del contrato No. 286 de 2013, para ser incorporada a la modelación hidrodinámica de la región dentro del marco del convenio de asociación No. 012 de 2013.</t>
   </si>
   <si>
     <t>lyr</t>
   </si>
   <si>
-    <t>Insumos de los productos del componente hidrogeologico del contrato 286 de 2013.</t>
-  </si>
-  <si>
-    <t>Cartografía, SIG, Falla, Pozo, Geología, Hidrogeología, isotopos estables, modelo hidrogeológico conceptual, dirección de flujo, agua subterránea, modelo geológico, mapa geológico, mapa hidrogeológico, Unidad Geológica.</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Insumos de los productos del componente hidrogeológico del contrato 286 de 2013.</t>
+  </si>
+  <si>
+    <t>Cartografía, SIG, falla, pozo, geología, hidrogeología, isotopos estables, modelo hidrogeológico conceptual, dirección de flujo, agua subterránea, modelo geológico, mapa geológico, mapa hidrogeológico, unidad geológica.</t>
   </si>
   <si>
     <t>R0006</t>
@@ -213,15 +236,12 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/HIDROGEOLOGIA/Producto mapas y shapes/Mapa</t>
   </si>
   <si>
-    <t>Mapas Hidrogeológicos y Geológicos realizados para la caracterización hidrogeológica de La Mojana en cumplimiento del contrato No. 286 de 2013.  para ser incorporada a la Modelación hidrodinámica de la región dentro del marco del convenio de asociación No. 012 de 2013</t>
+    <t>Mapas hidrogeológicos y geológicos realizados para la caracterización hidrogeológica de La Mojana en cumplimiento del contrato No. 286 de 2013, para ser incorporada a la Modelación hidrodinámica de la región dentro del marco del convenio de asociación No. 012 de 2013.</t>
   </si>
   <si>
     <t>pdf</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>R0007</t>
   </si>
   <si>
@@ -231,7 +251,7 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/HIDROGEOLOGIA/Producto mapas y shapes/SHP</t>
   </si>
   <si>
-    <t>PR013</t>
+    <t>PR0013</t>
   </si>
   <si>
     <t>R0008</t>
@@ -246,19 +266,16 @@
     <t xml:space="preserve">Caracterización hidrogeológica y modelo hidrogeológico conceptual de la Región de La Mojana. </t>
   </si>
   <si>
-    <t>Mapas Hidrogeológicos, Geológicos, muestreo de Isopos y resultados de tiritio realizados para el modelo hidrogeológico conceptual  de La Mojana en cumplimiento del contrato No. 286 de 2013.  para ser incorporada a la Modelación hidrodinámica de la región dentro del marco del convenio de asociación No. 012 de 2013</t>
-  </si>
-  <si>
-    <t>Mapas, Resultados de laboratorio</t>
-  </si>
-  <si>
-    <t>pdf, xls</t>
-  </si>
-  <si>
-    <t>Tiritio, Geología, Cartografía, Higrogeología, Suelo, Isotopos.</t>
-  </si>
-  <si>
-    <t>PR015</t>
+    <t>Mapas hidrogeológicos, geológicos, muestreo de isopos y resultados de tiritio realizados para el modelo hidrogeológico conceptual de La Mojana en cumplimiento del contrato No. 286 de 2013, para ser incorporada a la modelación hidrodinámica de la región dentro del marco del convenio de asociación No. 012 de 2013.</t>
+  </si>
+  <si>
+    <t>Mapas</t>
+  </si>
+  <si>
+    <t>Tiritio, geología, cartografía, hidrogeología, suelo, isotopos.</t>
+  </si>
+  <si>
+    <t>PR0015</t>
   </si>
   <si>
     <t>R0009</t>
@@ -273,10 +290,13 @@
     <t xml:space="preserve">Caracterización hidrogeológica conceptual de la Región de La Mojana. </t>
   </si>
   <si>
-    <t>Mapas Hidrogeológicos, Geológicos, muestreo de Isopos y resultados de tiritio realizados para la caracterización hidrogeológica conceptual de La Mojana en cumplimiento del contrato No. 286 de 2013.  para ser incorporada a la Modelación hidrodinámica de la región dentro del marco del convenio de asociación No. 012 de 2013</t>
-  </si>
-  <si>
-    <t>PR016</t>
+    <t>Mapas hidrogeológicos, geológicos, muestreo de isopos y resultados de tiritio realizados para la caracterización hidrogeológica conceptual de La Mojana en cumplimiento del contrato No. 286 de 2013, para ser incorporada a la modelación hidrodinámica de la región dentro del marco del convenio de asociación No. 012 de 2013.</t>
+  </si>
+  <si>
+    <t>Mapas, resultados de laboratorio</t>
+  </si>
+  <si>
+    <t>PR0016</t>
   </si>
   <si>
     <t>R0010</t>
@@ -291,16 +311,13 @@
     <t>Caracterización hidrogeológica conceptual de la Región de La Mojana. Informe de análisis isotópicos.</t>
   </si>
   <si>
-    <t>Resultados de análisis isotopicos para la caracterización hidrogeológica conceptual de La Mojana en cumplimiento del contrato No. 286 de 2013.  para ser incorporada a la Modelación hidrodinámica de la región dentro del marco del convenio de asociación No. 012 de 2013</t>
-  </si>
-  <si>
-    <t>Resultados de laboratorio</t>
-  </si>
-  <si>
-    <t>Tiritio, Geología, Isotopos, Suelo</t>
-  </si>
-  <si>
-    <t>PR011</t>
+    <t>Resultados de análisis isotópicos para la caracterización hidrogeológica conceptual de La Mojana en cumplimiento del contrato No. 286 de 2013, para ser incorporada a la modelación hidrodinámica de la región dentro del marco del convenio de asociación No. 012 de 2013.</t>
+  </si>
+  <si>
+    <t>Tiritio, geología, isotopos, suelo.</t>
+  </si>
+  <si>
+    <t>PR0011</t>
   </si>
   <si>
     <t>R0011</t>
@@ -309,22 +326,22 @@
     <t>Anexo_2._GraficasCaudalSolido</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/SOCAVACION/Anexo 2 Graficas de Caudal Solido/Anexo_2._GraficasCaudalSolido</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/SOCAVACION/Anexo 2 Graficas de Caudal Solido/Anexo_2._GraficasCaudalSolido.pdf</t>
   </si>
   <si>
     <t>Análisis de Socavación y depositación dentro del marco del contrato 173 de 2013.</t>
   </si>
   <si>
-    <t>Gráficas de caudal sólido y líquido medios diarios multianuales, como insumos para la realización del informe de socavación y depositación</t>
+    <t>Gráficas de caudal sólido y líquido medios diarios multianuales, como insumos para la realización del informe de socavación y depositación.</t>
   </si>
   <si>
     <t>Gráficas</t>
   </si>
   <si>
-    <t>Insumos de los productos de Socavación en el marco del contrato 173 de 2013.</t>
-  </si>
-  <si>
-    <t>Socavación, Sedimentación, Erosión, Depositación, Caudal sólido, Caudal líquido</t>
+    <t>Insumos de los productos de socavación en el marco del contrato 173 de 2013.</t>
+  </si>
+  <si>
+    <t>Socavación, sedimentación, erosión, depositación, caudal sólido, caudal líquido.</t>
   </si>
   <si>
     <t>R0012</t>
@@ -336,13 +353,13 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/SOCAVACION/Anexo 3 Resultados Concentracion</t>
   </si>
   <si>
-    <t>Graficas de resultados de concentración en otros puntos de análisis sobre La Mojana para los escenarios descritos del modelo 1D</t>
-  </si>
-  <si>
-    <t>Jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socavación, Erosión, Depositación, Sedimentación. </t>
+    <t>Graficas de resultados de concentración en otros puntos de análisis sobre La Mojana para los escenarios descritos del modelo 1D.</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socavación, erosión, depositación, sedimentación. </t>
   </si>
   <si>
     <t>R0013</t>
@@ -354,12 +371,15 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/SOCAVACION/Anexo 4 Resultados Anteriores Socavacion</t>
   </si>
   <si>
-    <t>Resultados de socavación de estudios anteriores</t>
+    <t>Resultados de socavación de estudios anteriores.</t>
   </si>
   <si>
     <t>Tablas</t>
   </si>
   <si>
+    <t>Tabla</t>
+  </si>
+  <si>
     <t>R0014</t>
   </si>
   <si>
@@ -369,14 +389,14 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/SOCAVACION/Anexo 5 Resultados Socavacion</t>
   </si>
   <si>
-    <t>Calculos de socavación local en estribos y pilas mediante diferentes metodologías</t>
+    <t>Cálculos de socavación local en estribos y pilas mediante diferentes metodologías.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,12 +726,19 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -796,22 +823,22 @@
         <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -819,13 +846,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1">
         <v>2014</v>
@@ -834,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
@@ -846,45 +873,45 @@
         <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
         <v>2014</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
@@ -896,45 +923,45 @@
         <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1">
         <v>2014</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
@@ -946,145 +973,145 @@
         <v>25</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1">
         <v>2014</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1">
         <v>2014</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1">
         <v>2014</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>23</v>
@@ -1096,369 +1123,369 @@
         <v>25</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1">
         <v>2014</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F10" s="1">
         <v>2014</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F11" s="1">
         <v>2014</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1">
         <v>2015</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F13" s="1">
         <v>2015</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F14" s="1">
         <v>2015</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F15" s="1">
         <v>2015</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/P0008/09_FICHAS/N3-FD-General.xlsx
+++ b/P0008/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0008\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{87D5B246-1DE2-47E0-BFF1-7347C090ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF80C40-3A43-46CB-9737-802179A25FC5}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{87D5B246-1DE2-47E0-BFF1-7347C090ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{433FAAAC-FBFE-4030-B88D-DC0050647F70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,7 +197,7 @@
     <t>Fisiografía, suelo, erosión, shp, paisaje, relieve, SIG.</t>
   </si>
   <si>
-    <t>PR0012, PR0013,PR0014,PR0015,PR0016</t>
+    <t>PR0012</t>
   </si>
   <si>
     <t>R0005</t>
@@ -442,7 +442,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,16 +726,25 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="7" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.140625" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
